--- a/500all/speech_level/speeches_CHRG-114hhrg98605.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400606</t>
   </si>
   <si>
-    <t>Matt Salmon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Salmon. Subcommittee will come to order.    First of all and foremost, my heart goes out to Taiwan as it deals with the aftermath of the shocking magnitude 6.4 earthquake on February 6th that claimed 63 lives and injured 551, and that was in the city of Tainan, where I lived for 7 months, and I have a really special place in my heart for the people of Tainan.    I am so saddened to hear about the damage that the earthquake wreaked and I know I am joined with my colleagues of the subcommittee in continuing to support Taiwan in this difficult time.    Today, we celebrate Taiwan's democracy, given its recent Presidential and parliamentary elections in January. In this regional context, Taiwan's free and fair elections, vibrant free market economy and open society have definitely set an example for the region and for the world.    With the Democratic Progressive Party, DPP, victory, the party has won its first ever absolute majority in the Legislative Yuan which until--which has until now been controlled by the Kuomintang, KMT. President-elect Tsai Ing-wen will also be Taiwan's first female President and I think that is pretty exciting.    This third peaceful transfer of executive power is an indication of the maturation of Taiwan's democracy. The recent election presents the United States with more opportunities to improve our political security and economic relationship with Taiwan.    We are here to parse out the priorities of President-elects Tsai's administration and understand the prospects and potential for the U.S., Taiwan and the cross-Strait relationships and to discuss how the United States can continue to honor our commitments to Taiwan. I look forward to hearing from our distinguished witnesses on these important issues.    The cross-Strait relationship has been relatively stable under the sitting Kuomintang President Ma Ying-jeou. President Ma took strides to build closer relationships with China, especially in trade.    To his credit, President Ma negotiated the Economic Cooperation Framework Agreement, ECFA, with China in 2010 and this paved the way for Taiwan's expanded trade ties under similar economic cooperation agreements with New Zealand and Singapore.    The suspension on the cross-Strait Trade in Services Agreement, TISA, as a result of domestic protests in 2014 may have indirectly contributed to China's tightening on further trade agreements between Taiwan and other countries.    With slow economic development, untapped potential due to political constraints and heavy reliance on trade, I look forward to hearing from our distinguished panels, especially our administration witness, about Taiwan's economic and trade prospects and how the United States can help Taiwan overcome some of these challenges.    I also worry about the potential for cross-Strait stability as China has not hesitated to remind us that it is still willing to use military force against Taiwan.    Of note, China continues to press President-elect Tsai and her administration to acknowledge the 1992 consensus, something President Ma has adhered to.    President-elect Tsai will continue to face pressure here, given her party's own interpretation of the agreement. Despite underscoring her intention to maintain the status quo and saying there won't be provocation and there won't be surprises, we cannot say the same for China.    A steady stream of threats toward Taiwan's national security are an everyday reality for Taiwan and its people and I hope our panelists can shed light on how we can continue to support Taiwan's security under the Taiwan Relations Act and through increased cooperation.    I admire outgoing President Ma and all that he was able to accomplish for Taiwan. I look forward to seeing how we can continue to work with President Tsai for the mutual benefit of the United States and Taiwan.    Members of Congress have always shared a strong interest in supporting Taiwan's security and democracy. Having lived there for a few years myself while serving a church mission, I am one of its big supporters--hopefully, its biggest.    At a time when Taiwan's presence in the international arena is constantly being threatened, at a time when Taiwan's security is not insured from coercion and potential attacks, I urge our administration to continue to support Taiwan.    We must prioritize Taiwan's active and meaningful participation on the global stage, ensure its self-defense capabilities are sufficient and ensure that its economy continues to grow vibrantly and compete with other major powers in the region.    Members present today are going to be permitted to submit written statements to be included in the official hearing record.    Without objection, the hearing record will remain open for 5 calendar days to allow for statements, questions and extraneous material subject to the length limitation in the rules.    And I am going to recognize Chairman Royce and then Ranking Member Sherman.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
-    <t>Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you very much, Chairman Salmon.    And let me first say on behalf of our members here we have all visited Tainan and been in Taiwan and our hearts go out to the people of Taiwan, to the victims of this earthquake. Fifty-nine perished so far. Hundreds and hundreds have been injured. There is a great knowledge here in the United States in terms of how much the Taiwanese go to the rescue with volunteers all over the world after international incidents whenever an earthquake or some other disaster hits. We saw how quickly the authorities, but also how quickly the volunteers, rushed to the scene to begin to rescue people.    So we have traveled--our committee together since I have been chairman--has traveled three times down to Taiwan in the last 3 years. We visited Kaohsiung and we have visited Tainan, as I mentioned, and Taipei, of course, and we are just devastated to see the destruction. But the American people stand by the Taiwanese people in their time of need and we are ready to assist in any way we can.    Taiwan is one of our most important friends to the U.S. in the Asia Pacific and I know that supporting Taiwan is a critical issue for members of the Foreign Affairs Committee. As chairman, I have made the strengthening of this relationship with Taiwan one of the committee's top priorities.    I want to again congratulate the people of Taiwan for their free and fair elections last month. I think the U.S. and Taiwan share a very important commitment to democracy, to human rights, to the rule of law and these values, I think, serve as a bedrock to the U.S.-Taiwan relationship. And I think the election demonstrated the strength and vibrancy of Taiwan's democracy and their democratic system, hopefully serving as a model for other countries in the region.    Last year, Chairman Salmon joined me, as I said, in the delegation where we spent some time in Taipei working to strengthen the U.S.-Taiwan relationship. We met with the sitting President, Ma. We met with President-elect, Dr. Tsai Ing-wen, and as the Taiwan Government changes hands during its transition period it is important that the U.S. continues to emphasize its steadfast commitment to Taiwan and that the players in Taiwan also make responsible decisions that are in the best interest of the people of Taiwan.    A stable and prosperous Taiwan is, of course, in the best interests of the United States and that is why I look forward to working closely with President-elect Tsai's new government to strengthen all aspects of the U.S.-Taiwan bilateral relationship. And in particular I have a enthusiasm--I have long been an advocate for Taiwan's inclusion into the Trans-Pacific Partnership. Taiwan's economic security is just as important as its physical security, so its inclusion in the second round of the agreement will be critical to Taiwan's stability. I know that Dr. Tsai will be willing to do the work in Taiwan needed to seriously begin a bilateral investment agreement with the United States with an eye toward TPP and so I encourage the administration to work with the new government to create a pathway for Taiwan to be integrated into these trade deals.    I am also committed to upholding the letter and spirit of the Taiwan Relations Act, which has underpinned the relationship now for 37 years.    Last year, we worked tirelessly to pressure the administration to finally follow through with the arms sales that it had promised Taiwan. The sales were finally set in motion in December but I remain deeply skeptical about the administration's delays that needlessly drag out the arms sales process for Taiwan.    So over the next year both the U.S. and Taiwan will be working on these types of issues, and I thank Chairman Salmon again--he is among the strongest friends of the Taiwanese people--and I also thank Congressman Brad Sherman and the other members of this committee for their engagement on the issue of Taiwan.    I look forward to hearing from the witnesses.</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Chairman, thank you for holding these hearings. I know we have a classified briefing for the full committee on the same subject as these hearings and then I know that we have votes.    So we will have a limited amount of time here in this room. Our hearts go out to the people of Taiwan and I join with your statement, the statement of our full committee chair, in sympathy for the people of Taiwan where this disaster has cost 60 lives.    And as the chairman noted, the people of Taiwan are there again and again and again when there is a disaster elsewhere in the world.    While the regime in Beijing is currently engaged in a concerted effort to restrict human rights, we look only at Taiwan as a country where democracy flourishes, and we will once again see the peaceful and democratic transfer of power from one party to another.    The United States has a strong interest in supporting the people of Taiwan and those interests are enshrined in the Taiwan Relations Act, which is an important statement that the U.S. to resolve that the people of Taiwan will be able to determine their own fate permanently and peacefully.    The clear message should be that the United States believes in the power of dialogue and we unequivocally support the right of the people of Taiwan to determine their own fate.    In that spirit, Mr. Chairman, I thank you for bringing up the Taiwan Naval Support Act and I thank the administration for finally delivering the frigging frigates.    While our commitment to our friends in Taiwan should not be doubted, I was very impressed to meet Dr. Tsai when she was in opposition on the trip led by Chairman Royce and I am confident that the people of Taiwan will rejoice when they inaugurate their first woman President and it is a joy that I look forward to the American people experiencing just a year later.    And I know the people of Taiwan will enjoy living under a woman President and I know my constituents look forward to that joy as well.    I look forward to hearing how we can help diversify the economy of Taiwan so it is less reliant on and dependent on and subject to manipulation by the People's Republic of China.    I support Taiwan joining TPP if that is what the people of China want--the people of Taiwan want. What I don't support is the United States joining TPP, and I will point out that every candidate for President that is able to get more than 3 percent of the vote has taken a stance against TPP because they know that the American people wouldn't dream of seriously considering a candidate that supported this trade pact which will hurt the American people so significantly while helping the People's Republic of China establish that the rules of trade for the world are that currency manipulation is, as my people say, kosher.    It is a tremendous negotiating victory for the People's Republic of China to enshrine in the rules of the road that their practices of currency manipulation are to be sacrosanct, not to mention the fact that the rules of origin are of such tremendous assistance to the People's Republic of China.    Taiwan could play a useful and larger role in international organizations, sharing its expertise, sharing its experience.    The United States needs to continue to advocate broader participation for in Taiwan international organizations, whether it be those organizations like Interpol, that keep us safe from dangerous criminals, and that's why I have cosponsored legislation to direct the President to develop a strategy to obtain observer status at least for Taiwan and Interpol.    Similarly, I have advocated Taiwan's participation in other international organizations. There is no reason why the fine points of international sovereignty should get involved in the practicality of Taiwan's membership in WHO.    Even the People's Republic of China has it in their interest to stop criminals and stop disease and the practical way to do that is to involve Taiwan to the maximum extent in the international organizations that are focused on human health and international crime.    So I look forward to hearing from the witnesses here in this open setting and to then adjourning for the classified briefing.    And I don't know if anyone else on our side has an opening statement. But I hope the chairman would indulge at least one member on our side.</t>
   </si>
   <si>
@@ -85,18 +76,12 @@
     <t>400071</t>
   </si>
   <si>
-    <t>Steve Chabot</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman, and thank you for holding this important hearing. Considering the recent elections in Taiwan, I want to commend the subcommittee for calling this hearing.    I met with President-elect Tsai several times in the past, both here and in Taiwan, and I congratulate her and the people of Taiwan for their continued support of democracy.    And I want to say that I agree with my colleague, Mr. Sherman, which sometimes we agree and sometimes we don't, but I certainly agree with his sentiment about how wonderful it is that Taiwan has its first woman President.    As far as here in the U.S., I also share the sentiment of having the first woman President sworn in next year except that unfortunately----</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
-    <t>Gerald E. Connolly</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Connolly. Here in the United States?</t>
   </si>
   <si>
@@ -130,9 +115,6 @@
     <t>412560</t>
   </si>
   <si>
-    <t>Grace Meng</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Chairman Salmon, to our Ranking Member Sherman and all our distinguished witnesses who are here today. Thank you for attending this important hearing.    Before I go forward with my remarks, I also want to take a moment to acknowledge the earthquake in Taiwan this past Saturday.    It was a terrible tragedy and I know people, not just in Taiwan and around the world, but my constituents in New York are very concerned as well.    I know that rescue efforts are ongoing and I too want to thank all the volunteers and people who have come forward to help.    Both my colleagues and I will be keeping a close eye on the progress.    The purpose of today's hearing is to assess the future of U.S.-Taiwan relations, particularly in light of the January 16th Presidential elections, and I too want to extend my congratulations to Dr. Tsai as the first female President in Taiwan.    I congratulate the people of Taiwan for their steadfast adherence to democracy and I look forward to improving our robust relationship.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -142,18 +124,12 @@
     <t>412521</t>
   </si>
   <si>
-    <t>Alan S. Lowenthal</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lowenthal. I concur. First, I thank you for being here. You know, and I also want to extend my condolences to the families of all those that were killed and injured by the earthquake. I want to congratulate the people of Taiwan on the successful elections.    It is a welcome example of democracy in a region that at the same time has seen a great backsliding on human rights. That is not true in terms of Taiwan.    We have seen the gradual improvement in the relationships between the cross-Strait relations.    I think it is beneficial for the security of all to have that stability and I look forward to the hearing today. Thank you, and I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you very much.    We are going to go ahead and introduce our first panelist. Thank you so much for being here today, Ms. Thornton.    We are pleased to have Ms. Susan Thornton here today, deputy assistant secretary of state in the State Department's Bureau of East Asian and Pacific Affairs. And we would like to have you give your opening statement and have some questions and then we will excuse you and we will seat the next panel.    You understand the lighting system. Not real complicated. When it goes amber you got a minute and when it goes red, most of the time people keep talking around here, but you should stop.    Thank you. Ms. Thornton.</t>
   </si>
   <si>
-    <t>Thornton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Thornton. Thank you very much, Mr. Chairman, members of the subcommittee for having me here today and giving me the opportunity to discuss our very strong relationship with Taiwan.    The story of Taiwan is, of course, an impressive one. People on Taiwan have built a prosperous, free and orderly society with strong institutions worthy of emulation and envy.    And before I go any further, I would also like to offer my sincere condolences to everyone in Taiwan that was affected by the recent earthquake, especially the families of those who were injured or lost their lives. The American people stand with the people on Taiwan during this difficult time.    Last month's free and fair elections were yet another victory for Taiwan's vibrant democracy. These elections not only represent Taiwan's third peaceful transition of Presidential power and the first transfer of power in its legislature but, as has been already remarked, will also lead to the inauguration of Taiwan's first female President.    In this administration we have worked to strengthen and deepen the bonds between the people of the United States and Taiwan to build a comprehensive, durable and mutually beneficial partnership.    As one of Taiwan's strongest partners, we are working side by side to increase our mutual economic prosperity, tackle global challenges and ensure effective security to support continued stability and dynamism for Taiwan and the region.    On trade issues, Taiwan has developed a well-earned reputation for having a diversified economy that has built its prosperity on the openness of the global trade system.    Taiwan has grown to become our ninth largest trading partner and our seventh largest destination for agricultural exports.    In 2015, our two-way trade in goods with Taiwan reached $66 billion, up 4\\1/2\\ percent in just the last 2 years. The United States has also moved up to be Taiwan's second largest trading partner in the last year.    Aside from these big business links, people-to-people ties between the United States and Taiwan also continue to grow. Travel for business and pleasure from Taiwan to the United States jumped 35 percent in 2013 alone after Taiwan became a member of the U.S. visa waiver program in November 2012.    The United States remains committed to supporting Taiwan's confidence and dignity through increased participation in the international community and enhanced security.    We continue to support Taiwan's membership in organizations that do not require statehood and to urge meaningful participation in those that do.    At a time when pressure to squeeze Taiwan out of international organizations is growing, we are finding new ways for Taiwan to earn the dignity and respect that its contributions to global challenges merit.    These include new innovations such as the establishment of our Global Cooperation and Training Framework. The GCTF is a vehicle for the United States to help showcase Taiwan's strengths and expertise by making it a hub for helping other countries to address global and regional concerns.    At the same time, we remain just as committed to Taiwan's meaningful participation in organizations like Interpol, ICAO, WHO and the U.N. climate framework.    We will continue to match Taiwan's growing capacity to serve the international community with equally innovative approaches to enabling and highlighting Taiwan's contributions.    On the security front, the United States makes available to Taiwan defense articles and services necessary for Taiwan to maintain a sufficient self-defense which is consistent with our responsibilities under the Taiwan Relations Act.    During the Obama administration, we have notified Congress of over $14 billion in arms sales to Taiwan including a sale of $1.83 billion that was notified in December of last year.    Our efforts at supporting Taiwan's self-defense capabilities extend beyond arms sales, however. We also support Taiwan's capacity-building efforts through visits, maintenance programs, and exchanges.    Due in part to these stepped-up contacts and strong U.S. partnership, Taipei has gained more confidence in its engagements with Beijing.    In recent years, the two sides have pursued constructive dialogue to reach agreements on economic and people-to-people exchanges that promote peace and stability across the Taiwan Strait.    Last year in November, we welcomed the meeting between leaders on both sides of the Taiwan Strait and the historic improvement in cross-Strait relations that it symbolized.    The United States remains committed to our one-China policy based on the three joint communiques and the Taiwan Relations Act, a policy that has remained consistent over several decades and many administrations.    We will continue to call on both sides of the Strait to engage in dialogue on the basis of dignity and respect after Taiwan's new administration takes office in May.    In conclusion, we have developed a vital partnership with Taiwan that is filled with many opportunities for cooperation in the future.    We are committed to ensuring that this relationship will continue to thrive as we find new ways to deepen our unofficial ties.    The innovative spirit, democratic dynamism and courageous vision of the people on Taiwan make us proud to be their friend and partner.    Mr. Chairman and members of the subcommittee, I would like to thank you again for inviting me here today and I'm happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -379,25 +355,16 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you, Ms. Meng.    That will conclude the first panel.    We will have the second panel be seated. I just also wanted to say that we are trying to reschedule the classified briefing because we are going to have votes called in about 15 minutes.    We might just get through the testimony of the second panel when we get called for votes. But thank you so much, Ms. Thornton, for coming and thank you for all your attention. So we'll seat the next panel now.    I think we'll go ahead and move on with introductions. I know we're kind of clearing the room out but we want to make sure we get your testimony before we have to go vote.    We are really pleased to be joined today by three excellent panelists. First, Mr. Randall Schriver, president and CEO of the Project 2049 Institute; Ms. Bonnie Glaser, good to see you again, senior advisor for Asia and director of the China Power Project and Center for Strategic and International Studies; and Dr. Shelley Rigger, Davidson University's political science department.    We are really grateful for these witnesses joining us today to lend their expertise and we'll start with you, Mr. Schriver.</t>
   </si>
   <si>
-    <t>Schriver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Schriver. Thank you, Mr. Chairman, very much appreciate the invitation and I appreciate being seated alongside Dr. Rigger and Ms. Glaser, who I have enormous respect for as well.    I want to join others who express condolences and thoughts and prayers. Certainly, it's a difficult time and we wish them well in the recovery efforts.    It's a very timely hearing, as has been noted, due to the recent election and I think it's appropriate that we acknowledge the significance of this event.    It's a young democracy. They are under tremendous pressure. So just carrying out a free and fair election is something worthy of our praise.    In your instructions you asked me to speak specifically about economic and trade issues, which I will do. Before doing that I think it's also appropriate to note President Ma and the fact that he's coming to the end of his tenure.    He's been a great friend of the United States, has done a terrific job promoting peace and stability in the region, I think often not given credit for his South China Sea peace initiative--the East China Sea peace initiative.    So as we move into a new administration we should reflect on his accomplishments. Dr. Tsai is somebody who's very experienced on trade matters. She herself has been a trade negotiator and I think she campaigned on economic reform and promoting trade. I think that gives us opportunities that we would be very smart to seize upon.    As mentioned by others, she has a keen interest in joining TPP. I'm of the view that we should not only welcome that interest but be very clear that we want Taiwan in a second round, should there be one, and I hope there is, and that we will work with them to identify a clear pathway to entry.    I listened carefully to the administration statement. We welcome their interest. I believe we should welcome more than their interest. I think we should work with them to have a concrete path to inclusion in TPP.    I agree with previous comments made about the investment environment and the need for a bilateral investment agreement. Taiwan is a significant investor in the United States and, of course, vice versa.    That can be strengthened. There are too many barriers still in place so we should keep these delegations going but more to the point work through the various fora to try to create a better environment for mutual investment.    I think there are other areas of our economic relationship that could also be strengthened. I think defense industrial cooperation is something we should consider.    There were, I think, some very good questions about the submarine program--why 15 years. Certainly, if Taiwan does determine to go the path of an indigenous diesel electric submarine, there are opportunities for our industry to get involved in that and I think the administration could send clear signals that we welcome that kind of defense industrial cooperation and it could really give a boost to this program and maybe it won't be another 15 years until we see a submarine there in Taiwan.    I think in the S &amp; T area as well this has been one of the past areas of success. Taiwan is a very innovative country. They are a global leader in patents and, to use an overused phrase, there are a lot of win-win opportunities, I think, if we really strengthen our S &amp; T cooperation not only in defense but beyond that and into that high-tech sector.    This is all going to unfold under an environment where I expect there to be increasing pressure, not only military pressure in the missiles that we're all aware of but there are rumors that China is preparing for a more coercive path, cutting back tours, cutting back flights, et cetera.    We can do these things irrespective of the positions China takes but, of course, it becomes more challenging, at least politically and diplomatically, to do that in face of more pressure.    But I think we have to remember to keep the onus on Beijing. They are the ones who have a policy that's failing. They're the ones that have the military posture opposite Taiwan, threatening them and intimating the people there and they are the ones that also need to show some flexibility    So people regard this election as a potential inflection point but we need to remember that the real core of the problem is Beijing's intransigence and the positions that they're taking.    So just to conclude very briefly, I think there are five things. I think TPP in a very clear path is important. I think more on bilateral investment to include not only the bilateral agreement but the promotion of these delegations. I think on the defense side, there is much more that can be done and I think several of the systems were mentioned--F-16s, mine sweepers. But I have a particular interest in the submarine program because I think there's an opportunity for defense industrial cooperation. The S &amp; T area is a fourth area I think is very promising and then finally in our diplomacy keep some balance. This election is one of the reasons we're here talking. But if you pull that thread too far some people might be oriented toward blaming democracy or blaming Taiwan for the instability.    The problem is in Beijing and we need to keep that in mind as we go forward and continue to put our emphasis on their need to de-escalate, to demilitarize and to have some flexibility.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Glaser.</t>
   </si>
   <si>
-    <t>Glaser</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Glaser. Thank you, Chairman Salmon, Ranking Member Sherman and distinguished members of the committee. I too would like to offer my thoughts and prayers to the people of Taiwan as they recover from this earthquake.    The United States has a deep and abiding interest in the preservation of Taiwan's security and democracy. The Taiwan Relations Act remains an important touchstone for Congress, for policy makers and the executive branch and to ensure Taiwan's security the U.S. Government must actively seek to use all the tools of U.S. policy and implement not only the letter but also the spirit and the intentions behind the TRA.    I have been asked to address my remarks to Taiwan's security and the threats to Taiwan's security are numerous and they are growing.    Efforts to sustain the island's economic prosperity which is a critically important component of national security are facing challenges.    Taiwan is largely excluded from the Asia Pacific regional economic integration process. The U.S. can and should do more to advocate for Taiwan's increased participation in international organizations and especially those that would enhance the safety and welfare of Taiwan's citizens and I commend Chairman Salmon for introducing the legislation that urges the Obama administration to support Taiwan's efforts to obtain observer status in Interpol from which it was expelled in 1984.    Without question the greatest and most direct threat to Taiwan's security is, of course, posed by the Chinese military. U.S. security assistance including but not limited to arms sales to Taiwan is vital to deter China from coercing or attacking Taiwan and to enable Taiwan's armed forces to fight effectively in all possible contingencies.    Cooperation with China reviewing presents important opportunities for the United States, for example, to reverse global warming and prevent nuclear proliferation, and the U.S., of course, should seek to work with Beijing to address regional and global challenges where possible.    However, it is harmful to American interests to be so eager for Chinese cooperation that it appears willing to sacrifice Taiwan for better U.S.-China ties. Such an approach sends the wrong signal to Beijing.    It creates anxiety in Taiwan and it fosters doubt throughout the region about America's willingness to withstand Chinese pressure in support of its commitments.    The KMT defeat in the election Tsai Ing-wen created some uncertainty about the future of cross-Strait relations. The mainland insists that Tsai Ing-wen accept its definition of the existing political foundation, which is essentially opposition to Taiwan independence and support of the 1992 consensus.    Tsai Ing-wen has recently defined this existing political foundation differently. For her, it includes a historical fact of the 1992 talks, the prevailing Republic of China constitutional order, the accumulated outcome of more than 20 years of cross-Strait interaction and importantly democratic principles and the will of the Taiwanese people.    The U.S. Government can play a role, I believe, to help narrow the gap between mainland China and Taiwan by encouraging each side to provide assurances to the other to assuage their respective fears.    The U.S. should strongly discourage Beijing from using coercive measures to pressure Tsai and the DPP to concede to its demands.    Punitive actions by China could compel Tsai Ing-wen to respond and perhaps result in a negative spiral that could produce a cross-Strait setback and even a crisis.    Beijing appears to be deliberating how to respond to the DPP's return to power in Taiwan. I think the Xi Jinping has not yet made a decision. But if he adopts the more coercive and even aggressive approach to Taiwan, the U.S. response will be widely viewed as an indicator of the credibility of American commitments.    And not only Japan but also countries in Southeast Asia would be alarmed if Washington fails to provide to Taiwan in the face of Chinese coercion or aggression.    For more than two decades the U.S. has insisted the decisions about Taiwan's future must have the assent of the people of Taiwan in a democratic manner and public opinion polls show that a majority of the people of Taiwan yes, they favor talks with mainland China but dwindling numbers favor reunification. In 2015, a record low of 9.1 percent of respondents in Taiwan favoured unification either now or in the future.    And this polling data, combined with the outcome of the election, suggests that there could be a realignment of political forces and attitudes underway in Taiwan and it is imperative that the U.S. help Taiwan to preserve the autonomy that its people desire and ensure that the differences between Taipei and Beijing be managed peacefully.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Dr. Rigger.</t>
-  </si>
-  <si>
-    <t>Rigger</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Rigger. Thank you very much for allowing me to be here. It's a pleasure to have this opportunity.    Taiwan's January elections were a watershed in the island's democratic development. For the first time, the Kuomintang lost control of both branches of the national government.    The DPP has won national elections only twice before when Chen Shui-bian was elected President in 2000 and 2004, and many in Washington remember the Chen presidency as a time of turbulence.    Chen began his presidency with efforts to reach out to Beijing and to the KMT but both the PRC and the KMT stonewalled and he eventually gave up on seeking their cooperation and began pursuing an agenda aimed more at pleasing his core supporters.    Nonetheless, the Chen presidency left many voters feeling disillusioned and that helped give the KMT's Ma Ying-jeou an easy win in 2008.    Under Ma, the Taiwan Strait has been relatively calm. Taiwan has signed almost two dozen economic agreements with the PRC while cross-Strait trade, investment and people to people flows have increased to unprecedented levels.    So now that the DPP is about to return to power, people are asking whether we are about to enter another era of tension in the Taiwan Strait.    While I understand why these questions are being asked, I do not believe we are about to enter an era of confrontation. Under Tsai's leadership, the DPP has adopted moderate positions that align with the preferences of Taiwan's people.    Throughout her campaign she made it clear that her goal is to preserve the status quo in the Taiwan Strait. She does not intend to move Taiwan toward independence but neither does she intend to rush headlong into Beijing's embrace, either politically or economically.    So, in short, the January elections affirmed Taiwan's democracy and confirmed the fundamental rationality of Taiwan's electorate.    Promoting democracy is a core interest and objective of U.S. foreign policy. During the Cold War, Taiwan's Government persuaded the U.S. to overlook its authoritarian nature but in the '70s and '80s U.S. officials, especially Members of Congress, joined with democracy activists in Taiwan to urge the KMT-led government to implement democratic reforms. Taiwan's democratization was achieved with almost no bloodshed or instability, making it an example to other nations.    Supporting Taiwan's democracy is an important element of U.S. policy, therefore, and it is critical that we not confuse Taiwan's people's active defense of their democracy with trouble making.    An overwhelming majority of Taiwanese recognize that pursuing formal independence is both unnecessary and risky but they have no interest in being absorbed into the People's Republic of China.    Their goal is to remain a self-governing democratic entity while working toward peaceful and cooperative relations with their neighbors on the Chinese mainland.    These goals, which are represented well now that Tsai has been elected the U.S. should redouble its efforts to keep channels of communication open.    U.S. policy precludes Washington from engaging in high-level official interactions with Taipei, although it seems that not everyone in this room thinks that's a good policy.    But the U.S. is free to choose a less restrictive interpretation of its policy. Overly rigid adherence to the one-China policy will not serve the U.S. well in a period of uncertainty and transition.    The task for the U.S. in the next few years will be to support Taiwan's continued democratic development. Washington should recognize and reward the DPP-led government's moderate positions and encourage all parties to seek opportunities for cooperation and avoid confrontation.    Given Taipei and Beijing's incompatible goals in some areas, a degree of tension is unavoidable. However, attentive management can prevent that tension from ripening into conflict.    Thank you very much.</t>
@@ -925,11 +892,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -949,13 +914,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -977,11 +940,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1001,13 +962,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1029,11 +988,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1053,13 +1010,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1079,13 +1034,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1105,13 +1058,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1131,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1157,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1183,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1209,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1237,11 +1180,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1263,11 +1204,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1287,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1315,11 +1252,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1339,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1367,11 +1300,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1391,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" t="s">
-        <v>42</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1419,11 +1348,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1443,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1471,11 +1396,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1495,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1523,11 +1444,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1547,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1575,11 +1492,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1599,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1627,11 +1540,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1651,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1677,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1703,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1729,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1755,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1781,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1807,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1833,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1859,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1885,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1911,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1937,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1963,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1989,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2015,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2041,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2067,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2095,11 +1972,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2119,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2145,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2171,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2197,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2223,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2251,11 +2116,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2275,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>25</v>
-      </c>
-      <c r="G54" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2301,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2327,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2353,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2379,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2405,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2431,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2457,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2483,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2509,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2535,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2561,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2587,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2613,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2639,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2665,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2691,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2717,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2743,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2769,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2795,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2821,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2847,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2873,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2899,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2927,11 +2740,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2951,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>22</v>
-      </c>
-      <c r="G80" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2977,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3003,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>22</v>
-      </c>
-      <c r="G82" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3029,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3055,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
-      </c>
-      <c r="G84" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3081,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3107,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
-      </c>
-      <c r="G86" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3133,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3159,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>22</v>
-      </c>
-      <c r="G88" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3185,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3211,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>22</v>
-      </c>
-      <c r="G90" t="s">
-        <v>23</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3237,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
-      </c>
-      <c r="G91" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3263,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3289,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
-      </c>
-      <c r="G93" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3315,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s">
-        <v>45</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3341,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
-      </c>
-      <c r="G95" t="s">
-        <v>38</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3369,11 +3148,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3393,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3421,11 +3196,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3445,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s">
-        <v>124</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3473,11 +3244,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3497,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3525,11 +3292,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3549,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3577,11 +3340,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3601,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s">
-        <v>124</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3629,11 +3388,9 @@
       <c r="F106" t="s">
         <v>11</v>
       </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3653,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>14</v>
-      </c>
-      <c r="G107" t="s">
-        <v>124</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3681,11 +3436,9 @@
       <c r="F108" t="s">
         <v>11</v>
       </c>
-      <c r="G108" t="s">
-        <v>12</v>
-      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3705,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>14</v>
-      </c>
-      <c r="G109" t="s">
-        <v>121</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3733,11 +3484,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3757,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3785,11 +3532,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3809,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3835,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3861,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3887,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>14</v>
-      </c>
-      <c r="G116" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3913,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>18</v>
-      </c>
-      <c r="G117" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3939,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>14</v>
-      </c>
-      <c r="G118" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3965,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3991,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>14</v>
-      </c>
-      <c r="G120" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4017,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4043,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>14</v>
-      </c>
-      <c r="G122" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4069,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4095,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>14</v>
-      </c>
-      <c r="G124" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4121,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4147,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>14</v>
-      </c>
-      <c r="G126" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4173,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4199,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>14</v>
-      </c>
-      <c r="G128" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4225,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4251,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>14</v>
-      </c>
-      <c r="G130" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4277,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4303,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>14</v>
-      </c>
-      <c r="G132" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4329,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4355,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>14</v>
-      </c>
-      <c r="G134" t="s">
-        <v>124</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4381,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s">
-        <v>121</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4407,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4433,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>14</v>
-      </c>
-      <c r="G137" t="s">
-        <v>121</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4459,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4487,11 +4180,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4511,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s">
-        <v>127</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4539,11 +4228,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4563,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4591,11 +4276,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98605.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,21 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Salmon</t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Salmon. Subcommittee will come to order.    First of all and foremost, my heart goes out to Taiwan as it deals with the aftermath of the shocking magnitude 6.4 earthquake on February 6th that claimed 63 lives and injured 551, and that was in the city of Tainan, where I lived for 7 months, and I have a really special place in my heart for the people of Tainan.    I am so saddened to hear about the damage that the earthquake wreaked and I know I am joined with my colleagues of the subcommittee in continuing to support Taiwan in this difficult time.    Today, we celebrate Taiwan's democracy, given its recent Presidential and parliamentary elections in January. In this regional context, Taiwan's free and fair elections, vibrant free market economy and open society have definitely set an example for the region and for the world.    With the Democratic Progressive Party, DPP, victory, the party has won its first ever absolute majority in the Legislative Yuan which until--which has until now been controlled by the Kuomintang, KMT. President-elect Tsai Ing-wen will also be Taiwan's first female President and I think that is pretty exciting.    This third peaceful transfer of executive power is an indication of the maturation of Taiwan's democracy. The recent election presents the United States with more opportunities to improve our political security and economic relationship with Taiwan.    We are here to parse out the priorities of President-elects Tsai's administration and understand the prospects and potential for the U.S., Taiwan and the cross-Strait relationships and to discuss how the United States can continue to honor our commitments to Taiwan. I look forward to hearing from our distinguished witnesses on these important issues.    The cross-Strait relationship has been relatively stable under the sitting Kuomintang President Ma Ying-jeou. President Ma took strides to build closer relationships with China, especially in trade.    To his credit, President Ma negotiated the Economic Cooperation Framework Agreement, ECFA, with China in 2010 and this paved the way for Taiwan's expanded trade ties under similar economic cooperation agreements with New Zealand and Singapore.    The suspension on the cross-Strait Trade in Services Agreement, TISA, as a result of domestic protests in 2014 may have indirectly contributed to China's tightening on further trade agreements between Taiwan and other countries.    With slow economic development, untapped potential due to political constraints and heavy reliance on trade, I look forward to hearing from our distinguished panels, especially our administration witness, about Taiwan's economic and trade prospects and how the United States can help Taiwan overcome some of these challenges.    I also worry about the potential for cross-Strait stability as China has not hesitated to remind us that it is still willing to use military force against Taiwan.    Of note, China continues to press President-elect Tsai and her administration to acknowledge the 1992 consensus, something President Ma has adhered to.    President-elect Tsai will continue to face pressure here, given her party's own interpretation of the agreement. Despite underscoring her intention to maintain the status quo and saying there won't be provocation and there won't be surprises, we cannot say the same for China.    A steady stream of threats toward Taiwan's national security are an everyday reality for Taiwan and its people and I hope our panelists can shed light on how we can continue to support Taiwan's security under the Taiwan Relations Act and through increased cooperation.    I admire outgoing President Ma and all that he was able to accomplish for Taiwan. I look forward to seeing how we can continue to work with President Tsai for the mutual benefit of the United States and Taiwan.    Members of Congress have always shared a strong interest in supporting Taiwan's security and democracy. Having lived there for a few years myself while serving a church mission, I am one of its big supporters--hopefully, its biggest.    At a time when Taiwan's presence in the international arena is constantly being threatened, at a time when Taiwan's security is not insured from coercion and potential attacks, I urge our administration to continue to support Taiwan.    We must prioritize Taiwan's active and meaningful participation on the global stage, ensure its self-defense capabilities are sufficient and ensure that its economy continues to grow vibrantly and compete with other major powers in the region.    Members present today are going to be permitted to submit written statements to be included in the official hearing record.    Without objection, the hearing record will remain open for 5 calendar days to allow for statements, questions and extraneous material subject to the length limitation in the rules.    And I am going to recognize Chairman Royce and then Ranking Member Sherman.</t>
   </si>
   <si>
     <t>N/A</t>
   </si>
   <si>
+    <t>Royce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you very much, Chairman Salmon.    And let me first say on behalf of our members here we have all visited Tainan and been in Taiwan and our hearts go out to the people of Taiwan, to the victims of this earthquake. Fifty-nine perished so far. Hundreds and hundreds have been injured. There is a great knowledge here in the United States in terms of how much the Taiwanese go to the rescue with volunteers all over the world after international incidents whenever an earthquake or some other disaster hits. We saw how quickly the authorities, but also how quickly the volunteers, rushed to the scene to begin to rescue people.    So we have traveled--our committee together since I have been chairman--has traveled three times down to Taiwan in the last 3 years. We visited Kaohsiung and we have visited Tainan, as I mentioned, and Taipei, of course, and we are just devastated to see the destruction. But the American people stand by the Taiwanese people in their time of need and we are ready to assist in any way we can.    Taiwan is one of our most important friends to the U.S. in the Asia Pacific and I know that supporting Taiwan is a critical issue for members of the Foreign Affairs Committee. As chairman, I have made the strengthening of this relationship with Taiwan one of the committee's top priorities.    I want to again congratulate the people of Taiwan for their free and fair elections last month. I think the U.S. and Taiwan share a very important commitment to democracy, to human rights, to the rule of law and these values, I think, serve as a bedrock to the U.S.-Taiwan relationship. And I think the election demonstrated the strength and vibrancy of Taiwan's democracy and their democratic system, hopefully serving as a model for other countries in the region.    Last year, Chairman Salmon joined me, as I said, in the delegation where we spent some time in Taipei working to strengthen the U.S.-Taiwan relationship. We met with the sitting President, Ma. We met with President-elect, Dr. Tsai Ing-wen, and as the Taiwan Government changes hands during its transition period it is important that the U.S. continues to emphasize its steadfast commitment to Taiwan and that the players in Taiwan also make responsible decisions that are in the best interest of the people of Taiwan.    A stable and prosperous Taiwan is, of course, in the best interests of the United States and that is why I look forward to working closely with President-elect Tsai's new government to strengthen all aspects of the U.S.-Taiwan bilateral relationship. And in particular I have a enthusiasm--I have long been an advocate for Taiwan's inclusion into the Trans-Pacific Partnership. Taiwan's economic security is just as important as its physical security, so its inclusion in the second round of the agreement will be critical to Taiwan's stability. I know that Dr. Tsai will be willing to do the work in Taiwan needed to seriously begin a bilateral investment agreement with the United States with an eye toward TPP and so I encourage the administration to work with the new government to create a pathway for Taiwan to be integrated into these trade deals.    I am also committed to upholding the letter and spirit of the Taiwan Relations Act, which has underpinned the relationship now for 37 years.    Last year, we worked tirelessly to pressure the administration to finally follow through with the arms sales that it had promised Taiwan. The sales were finally set in motion in December but I remain deeply skeptical about the administration's delays that needlessly drag out the arms sales process for Taiwan.    So over the next year both the U.S. and Taiwan will be working on these types of issues, and I thank Chairman Salmon again--he is among the strongest friends of the Taiwanese people--and I also thank Congressman Brad Sherman and the other members of this committee for their engagement on the issue of Taiwan.    I look forward to hearing from the witnesses.</t>
   </si>
   <si>
@@ -67,6 +79,12 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Sherman. Chairman, thank you for holding these hearings. I know we have a classified briefing for the full committee on the same subject as these hearings and then I know that we have votes.    So we will have a limited amount of time here in this room. Our hearts go out to the people of Taiwan and I join with your statement, the statement of our full committee chair, in sympathy for the people of Taiwan where this disaster has cost 60 lives.    And as the chairman noted, the people of Taiwan are there again and again and again when there is a disaster elsewhere in the world.    While the regime in Beijing is currently engaged in a concerted effort to restrict human rights, we look only at Taiwan as a country where democracy flourishes, and we will once again see the peaceful and democratic transfer of power from one party to another.    The United States has a strong interest in supporting the people of Taiwan and those interests are enshrined in the Taiwan Relations Act, which is an important statement that the U.S. to resolve that the people of Taiwan will be able to determine their own fate permanently and peacefully.    The clear message should be that the United States believes in the power of dialogue and we unequivocally support the right of the people of Taiwan to determine their own fate.    In that spirit, Mr. Chairman, I thank you for bringing up the Taiwan Naval Support Act and I thank the administration for finally delivering the frigging frigates.    While our commitment to our friends in Taiwan should not be doubted, I was very impressed to meet Dr. Tsai when she was in opposition on the trip led by Chairman Royce and I am confident that the people of Taiwan will rejoice when they inaugurate their first woman President and it is a joy that I look forward to the American people experiencing just a year later.    And I know the people of Taiwan will enjoy living under a woman President and I know my constituents look forward to that joy as well.    I look forward to hearing how we can help diversify the economy of Taiwan so it is less reliant on and dependent on and subject to manipulation by the People's Republic of China.    I support Taiwan joining TPP if that is what the people of China want--the people of Taiwan want. What I don't support is the United States joining TPP, and I will point out that every candidate for President that is able to get more than 3 percent of the vote has taken a stance against TPP because they know that the American people wouldn't dream of seriously considering a candidate that supported this trade pact which will hurt the American people so significantly while helping the People's Republic of China establish that the rules of trade for the world are that currency manipulation is, as my people say, kosher.    It is a tremendous negotiating victory for the People's Republic of China to enshrine in the rules of the road that their practices of currency manipulation are to be sacrosanct, not to mention the fact that the rules of origin are of such tremendous assistance to the People's Republic of China.    Taiwan could play a useful and larger role in international organizations, sharing its expertise, sharing its experience.    The United States needs to continue to advocate broader participation for in Taiwan international organizations, whether it be those organizations like Interpol, that keep us safe from dangerous criminals, and that's why I have cosponsored legislation to direct the President to develop a strategy to obtain observer status at least for Taiwan and Interpol.    Similarly, I have advocated Taiwan's participation in other international organizations. There is no reason why the fine points of international sovereignty should get involved in the practicality of Taiwan's membership in WHO.    Even the People's Republic of China has it in their interest to stop criminals and stop disease and the practical way to do that is to involve Taiwan to the maximum extent in the international organizations that are focused on human health and international crime.    So I look forward to hearing from the witnesses here in this open setting and to then adjourning for the classified briefing.    And I don't know if anyone else on our side has an opening statement. But I hope the chairman would indulge at least one member on our side.</t>
   </si>
   <si>
@@ -76,12 +94,24 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Chabot. Thank you, Mr. Chairman, and thank you for holding this important hearing. Considering the recent elections in Taiwan, I want to commend the subcommittee for calling this hearing.    I met with President-elect Tsai several times in the past, both here and in Taiwan, and I congratulate her and the people of Taiwan for their continued support of democracy.    And I want to say that I agree with my colleague, Mr. Sherman, which sometimes we agree and sometimes we don't, but I certainly agree with his sentiment about how wonderful it is that Taiwan has its first woman President.    As far as here in the U.S., I also share the sentiment of having the first woman President sworn in next year except that unfortunately----</t>
   </si>
   <si>
     <t>412272</t>
   </si>
   <si>
+    <t>Connolly</t>
+  </si>
+  <si>
+    <t>Gerald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Connolly. Here in the United States?</t>
   </si>
   <si>
@@ -115,6 +145,12 @@
     <t>412560</t>
   </si>
   <si>
+    <t>Meng</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Meng. Thank you, Chairman Salmon, to our Ranking Member Sherman and all our distinguished witnesses who are here today. Thank you for attending this important hearing.    Before I go forward with my remarks, I also want to take a moment to acknowledge the earthquake in Taiwan this past Saturday.    It was a terrible tragedy and I know people, not just in Taiwan and around the world, but my constituents in New York are very concerned as well.    I know that rescue efforts are ongoing and I too want to thank all the volunteers and people who have come forward to help.    Both my colleagues and I will be keeping a close eye on the progress.    The purpose of today's hearing is to assess the future of U.S.-Taiwan relations, particularly in light of the January 16th Presidential elections, and I too want to extend my congratulations to Dr. Tsai as the first female President in Taiwan.    I congratulate the people of Taiwan for their steadfast adherence to democracy and I look forward to improving our robust relationship.    Thank you, and I yield back.</t>
   </si>
   <si>
@@ -124,12 +160,21 @@
     <t>412521</t>
   </si>
   <si>
+    <t>Lowenthal</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lowenthal. I concur. First, I thank you for being here. You know, and I also want to extend my condolences to the families of all those that were killed and injured by the earthquake. I want to congratulate the people of Taiwan on the successful elections.    It is a welcome example of democracy in a region that at the same time has seen a great backsliding on human rights. That is not true in terms of Taiwan.    We have seen the gradual improvement in the relationships between the cross-Strait relations.    I think it is beneficial for the security of all to have that stability and I look forward to the hearing today. Thank you, and I yield back.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you very much.    We are going to go ahead and introduce our first panelist. Thank you so much for being here today, Ms. Thornton.    We are pleased to have Ms. Susan Thornton here today, deputy assistant secretary of state in the State Department's Bureau of East Asian and Pacific Affairs. And we would like to have you give your opening statement and have some questions and then we will excuse you and we will seat the next panel.    You understand the lighting system. Not real complicated. When it goes amber you got a minute and when it goes red, most of the time people keep talking around here, but you should stop.    Thank you. Ms. Thornton.</t>
   </si>
   <si>
+    <t>Thornton</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Thornton. Thank you very much, Mr. Chairman, members of the subcommittee for having me here today and giving me the opportunity to discuss our very strong relationship with Taiwan.    The story of Taiwan is, of course, an impressive one. People on Taiwan have built a prosperous, free and orderly society with strong institutions worthy of emulation and envy.    And before I go any further, I would also like to offer my sincere condolences to everyone in Taiwan that was affected by the recent earthquake, especially the families of those who were injured or lost their lives. The American people stand with the people on Taiwan during this difficult time.    Last month's free and fair elections were yet another victory for Taiwan's vibrant democracy. These elections not only represent Taiwan's third peaceful transition of Presidential power and the first transfer of power in its legislature but, as has been already remarked, will also lead to the inauguration of Taiwan's first female President.    In this administration we have worked to strengthen and deepen the bonds between the people of the United States and Taiwan to build a comprehensive, durable and mutually beneficial partnership.    As one of Taiwan's strongest partners, we are working side by side to increase our mutual economic prosperity, tackle global challenges and ensure effective security to support continued stability and dynamism for Taiwan and the region.    On trade issues, Taiwan has developed a well-earned reputation for having a diversified economy that has built its prosperity on the openness of the global trade system.    Taiwan has grown to become our ninth largest trading partner and our seventh largest destination for agricultural exports.    In 2015, our two-way trade in goods with Taiwan reached $66 billion, up 4\\1/2\\ percent in just the last 2 years. The United States has also moved up to be Taiwan's second largest trading partner in the last year.    Aside from these big business links, people-to-people ties between the United States and Taiwan also continue to grow. Travel for business and pleasure from Taiwan to the United States jumped 35 percent in 2013 alone after Taiwan became a member of the U.S. visa waiver program in November 2012.    The United States remains committed to supporting Taiwan's confidence and dignity through increased participation in the international community and enhanced security.    We continue to support Taiwan's membership in organizations that do not require statehood and to urge meaningful participation in those that do.    At a time when pressure to squeeze Taiwan out of international organizations is growing, we are finding new ways for Taiwan to earn the dignity and respect that its contributions to global challenges merit.    These include new innovations such as the establishment of our Global Cooperation and Training Framework. The GCTF is a vehicle for the United States to help showcase Taiwan's strengths and expertise by making it a hub for helping other countries to address global and regional concerns.    At the same time, we remain just as committed to Taiwan's meaningful participation in organizations like Interpol, ICAO, WHO and the U.N. climate framework.    We will continue to match Taiwan's growing capacity to serve the international community with equally innovative approaches to enabling and highlighting Taiwan's contributions.    On the security front, the United States makes available to Taiwan defense articles and services necessary for Taiwan to maintain a sufficient self-defense which is consistent with our responsibilities under the Taiwan Relations Act.    During the Obama administration, we have notified Congress of over $14 billion in arms sales to Taiwan including a sale of $1.83 billion that was notified in December of last year.    Our efforts at supporting Taiwan's self-defense capabilities extend beyond arms sales, however. We also support Taiwan's capacity-building efforts through visits, maintenance programs, and exchanges.    Due in part to these stepped-up contacts and strong U.S. partnership, Taipei has gained more confidence in its engagements with Beijing.    In recent years, the two sides have pursued constructive dialogue to reach agreements on economic and people-to-people exchanges that promote peace and stability across the Taiwan Strait.    Last year in November, we welcomed the meeting between leaders on both sides of the Taiwan Strait and the historic improvement in cross-Strait relations that it symbolized.    The United States remains committed to our one-China policy based on the three joint communiques and the Taiwan Relations Act, a policy that has remained consistent over several decades and many administrations.    We will continue to call on both sides of the Strait to engage in dialogue on the basis of dignity and respect after Taiwan's new administration takes office in May.    In conclusion, we have developed a vital partnership with Taiwan that is filled with many opportunities for cooperation in the future.    We are committed to ensuring that this relationship will continue to thrive as we find new ways to deepen our unofficial ties.    The innovative spirit, democratic dynamism and courageous vision of the people on Taiwan make us proud to be their friend and partner.    Mr. Chairman and members of the subcommittee, I would like to thank you again for inviting me here today and I'm happy to answer any questions you may have.</t>
   </si>
   <si>
@@ -355,16 +400,25 @@
     <t xml:space="preserve">    Mr. Salmon. Thank you, Ms. Meng.    That will conclude the first panel.    We will have the second panel be seated. I just also wanted to say that we are trying to reschedule the classified briefing because we are going to have votes called in about 15 minutes.    We might just get through the testimony of the second panel when we get called for votes. But thank you so much, Ms. Thornton, for coming and thank you for all your attention. So we'll seat the next panel now.    I think we'll go ahead and move on with introductions. I know we're kind of clearing the room out but we want to make sure we get your testimony before we have to go vote.    We are really pleased to be joined today by three excellent panelists. First, Mr. Randall Schriver, president and CEO of the Project 2049 Institute; Ms. Bonnie Glaser, good to see you again, senior advisor for Asia and director of the China Power Project and Center for Strategic and International Studies; and Dr. Shelley Rigger, Davidson University's political science department.    We are really grateful for these witnesses joining us today to lend their expertise and we'll start with you, Mr. Schriver.</t>
   </si>
   <si>
+    <t>Schriver</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Schriver. Thank you, Mr. Chairman, very much appreciate the invitation and I appreciate being seated alongside Dr. Rigger and Ms. Glaser, who I have enormous respect for as well.    I want to join others who express condolences and thoughts and prayers. Certainly, it's a difficult time and we wish them well in the recovery efforts.    It's a very timely hearing, as has been noted, due to the recent election and I think it's appropriate that we acknowledge the significance of this event.    It's a young democracy. They are under tremendous pressure. So just carrying out a free and fair election is something worthy of our praise.    In your instructions you asked me to speak specifically about economic and trade issues, which I will do. Before doing that I think it's also appropriate to note President Ma and the fact that he's coming to the end of his tenure.    He's been a great friend of the United States, has done a terrific job promoting peace and stability in the region, I think often not given credit for his South China Sea peace initiative--the East China Sea peace initiative.    So as we move into a new administration we should reflect on his accomplishments. Dr. Tsai is somebody who's very experienced on trade matters. She herself has been a trade negotiator and I think she campaigned on economic reform and promoting trade. I think that gives us opportunities that we would be very smart to seize upon.    As mentioned by others, she has a keen interest in joining TPP. I'm of the view that we should not only welcome that interest but be very clear that we want Taiwan in a second round, should there be one, and I hope there is, and that we will work with them to identify a clear pathway to entry.    I listened carefully to the administration statement. We welcome their interest. I believe we should welcome more than their interest. I think we should work with them to have a concrete path to inclusion in TPP.    I agree with previous comments made about the investment environment and the need for a bilateral investment agreement. Taiwan is a significant investor in the United States and, of course, vice versa.    That can be strengthened. There are too many barriers still in place so we should keep these delegations going but more to the point work through the various fora to try to create a better environment for mutual investment.    I think there are other areas of our economic relationship that could also be strengthened. I think defense industrial cooperation is something we should consider.    There were, I think, some very good questions about the submarine program--why 15 years. Certainly, if Taiwan does determine to go the path of an indigenous diesel electric submarine, there are opportunities for our industry to get involved in that and I think the administration could send clear signals that we welcome that kind of defense industrial cooperation and it could really give a boost to this program and maybe it won't be another 15 years until we see a submarine there in Taiwan.    I think in the S &amp; T area as well this has been one of the past areas of success. Taiwan is a very innovative country. They are a global leader in patents and, to use an overused phrase, there are a lot of win-win opportunities, I think, if we really strengthen our S &amp; T cooperation not only in defense but beyond that and into that high-tech sector.    This is all going to unfold under an environment where I expect there to be increasing pressure, not only military pressure in the missiles that we're all aware of but there are rumors that China is preparing for a more coercive path, cutting back tours, cutting back flights, et cetera.    We can do these things irrespective of the positions China takes but, of course, it becomes more challenging, at least politically and diplomatically, to do that in face of more pressure.    But I think we have to remember to keep the onus on Beijing. They are the ones who have a policy that's failing. They're the ones that have the military posture opposite Taiwan, threatening them and intimating the people there and they are the ones that also need to show some flexibility    So people regard this election as a potential inflection point but we need to remember that the real core of the problem is Beijing's intransigence and the positions that they're taking.    So just to conclude very briefly, I think there are five things. I think TPP in a very clear path is important. I think more on bilateral investment to include not only the bilateral agreement but the promotion of these delegations. I think on the defense side, there is much more that can be done and I think several of the systems were mentioned--F-16s, mine sweepers. But I have a particular interest in the submarine program because I think there's an opportunity for defense industrial cooperation. The S &amp; T area is a fourth area I think is very promising and then finally in our diplomacy keep some balance. This election is one of the reasons we're here talking. But if you pull that thread too far some people might be oriented toward blaming democracy or blaming Taiwan for the instability.    The problem is in Beijing and we need to keep that in mind as we go forward and continue to put our emphasis on their need to de-escalate, to demilitarize and to have some flexibility.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Thank you.    Ms. Glaser.</t>
   </si>
   <si>
+    <t>Glaser</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Glaser. Thank you, Chairman Salmon, Ranking Member Sherman and distinguished members of the committee. I too would like to offer my thoughts and prayers to the people of Taiwan as they recover from this earthquake.    The United States has a deep and abiding interest in the preservation of Taiwan's security and democracy. The Taiwan Relations Act remains an important touchstone for Congress, for policy makers and the executive branch and to ensure Taiwan's security the U.S. Government must actively seek to use all the tools of U.S. policy and implement not only the letter but also the spirit and the intentions behind the TRA.    I have been asked to address my remarks to Taiwan's security and the threats to Taiwan's security are numerous and they are growing.    Efforts to sustain the island's economic prosperity which is a critically important component of national security are facing challenges.    Taiwan is largely excluded from the Asia Pacific regional economic integration process. The U.S. can and should do more to advocate for Taiwan's increased participation in international organizations and especially those that would enhance the safety and welfare of Taiwan's citizens and I commend Chairman Salmon for introducing the legislation that urges the Obama administration to support Taiwan's efforts to obtain observer status in Interpol from which it was expelled in 1984.    Without question the greatest and most direct threat to Taiwan's security is, of course, posed by the Chinese military. U.S. security assistance including but not limited to arms sales to Taiwan is vital to deter China from coercing or attacking Taiwan and to enable Taiwan's armed forces to fight effectively in all possible contingencies.    Cooperation with China reviewing presents important opportunities for the United States, for example, to reverse global warming and prevent nuclear proliferation, and the U.S., of course, should seek to work with Beijing to address regional and global challenges where possible.    However, it is harmful to American interests to be so eager for Chinese cooperation that it appears willing to sacrifice Taiwan for better U.S.-China ties. Such an approach sends the wrong signal to Beijing.    It creates anxiety in Taiwan and it fosters doubt throughout the region about America's willingness to withstand Chinese pressure in support of its commitments.    The KMT defeat in the election Tsai Ing-wen created some uncertainty about the future of cross-Strait relations. The mainland insists that Tsai Ing-wen accept its definition of the existing political foundation, which is essentially opposition to Taiwan independence and support of the 1992 consensus.    Tsai Ing-wen has recently defined this existing political foundation differently. For her, it includes a historical fact of the 1992 talks, the prevailing Republic of China constitutional order, the accumulated outcome of more than 20 years of cross-Strait interaction and importantly democratic principles and the will of the Taiwanese people.    The U.S. Government can play a role, I believe, to help narrow the gap between mainland China and Taiwan by encouraging each side to provide assurances to the other to assuage their respective fears.    The U.S. should strongly discourage Beijing from using coercive measures to pressure Tsai and the DPP to concede to its demands.    Punitive actions by China could compel Tsai Ing-wen to respond and perhaps result in a negative spiral that could produce a cross-Strait setback and even a crisis.    Beijing appears to be deliberating how to respond to the DPP's return to power in Taiwan. I think the Xi Jinping has not yet made a decision. But if he adopts the more coercive and even aggressive approach to Taiwan, the U.S. response will be widely viewed as an indicator of the credibility of American commitments.    And not only Japan but also countries in Southeast Asia would be alarmed if Washington fails to provide to Taiwan in the face of Chinese coercion or aggression.    For more than two decades the U.S. has insisted the decisions about Taiwan's future must have the assent of the people of Taiwan in a democratic manner and public opinion polls show that a majority of the people of Taiwan yes, they favor talks with mainland China but dwindling numbers favor reunification. In 2015, a record low of 9.1 percent of respondents in Taiwan favoured unification either now or in the future.    And this polling data, combined with the outcome of the election, suggests that there could be a realignment of political forces and attitudes underway in Taiwan and it is imperative that the U.S. help Taiwan to preserve the autonomy that its people desire and ensure that the differences between Taipei and Beijing be managed peacefully.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Salmon. Dr. Rigger.</t>
+  </si>
+  <si>
+    <t>Rigger</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Rigger. Thank you very much for allowing me to be here. It's a pleasure to have this opportunity.    Taiwan's January elections were a watershed in the island's democratic development. For the first time, the Kuomintang lost control of both branches of the national government.    The DPP has won national elections only twice before when Chen Shui-bian was elected President in 2000 and 2004, and many in Washington remember the Chen presidency as a time of turbulence.    Chen began his presidency with efforts to reach out to Beijing and to the KMT but both the PRC and the KMT stonewalled and he eventually gave up on seeking their cooperation and began pursuing an agenda aimed more at pleasing his core supporters.    Nonetheless, the Chen presidency left many voters feeling disillusioned and that helped give the KMT's Ma Ying-jeou an easy win in 2008.    Under Ma, the Taiwan Strait has been relatively calm. Taiwan has signed almost two dozen economic agreements with the PRC while cross-Strait trade, investment and people to people flows have increased to unprecedented levels.    So now that the DPP is about to return to power, people are asking whether we are about to enter another era of tension in the Taiwan Strait.    While I understand why these questions are being asked, I do not believe we are about to enter an era of confrontation. Under Tsai's leadership, the DPP has adopted moderate positions that align with the preferences of Taiwan's people.    Throughout her campaign she made it clear that her goal is to preserve the status quo in the Taiwan Strait. She does not intend to move Taiwan toward independence but neither does she intend to rush headlong into Beijing's embrace, either politically or economically.    So, in short, the January elections affirmed Taiwan's democracy and confirmed the fundamental rationality of Taiwan's electorate.    Promoting democracy is a core interest and objective of U.S. foreign policy. During the Cold War, Taiwan's Government persuaded the U.S. to overlook its authoritarian nature but in the '70s and '80s U.S. officials, especially Members of Congress, joined with democracy activists in Taiwan to urge the KMT-led government to implement democratic reforms. Taiwan's democratization was achieved with almost no bloodshed or instability, making it an example to other nations.    Supporting Taiwan's democracy is an important element of U.S. policy, therefore, and it is critical that we not confuse Taiwan's people's active defense of their democracy with trouble making.    An overwhelming majority of Taiwanese recognize that pursuing formal independence is both unnecessary and risky but they have no interest in being absorbed into the People's Republic of China.    Their goal is to remain a self-governing democratic entity while working toward peaceful and cooperative relations with their neighbors on the Chinese mainland.    These goals, which are represented well now that Tsai has been elected the U.S. should redouble its efforts to keep channels of communication open.    U.S. policy precludes Washington from engaging in high-level official interactions with Taipei, although it seems that not everyone in this room thinks that's a good policy.    But the U.S. is free to choose a less restrictive interpretation of its policy. Overly rigid adherence to the one-China policy will not serve the U.S. well in a period of uncertainty and transition.    The task for the U.S. in the next few years will be to support Taiwan's continued democratic development. Washington should recognize and reward the DPP-led government's moderate positions and encourage all parties to seek opportunities for cooperation and avoid confrontation.    Given Taipei and Beijing's incompatible goals in some areas, a degree of tension is unavoidable. However, attentive management can prevent that tension from ripening into conflict.    Thank you very much.</t>
@@ -842,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,3413 +926,4010 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
       <c r="H5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
       <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>43</v>
+      </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>48</v>
+      </c>
       <c r="H20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="I20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>21</v>
+      </c>
       <c r="H30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G31" t="s">
+        <v>52</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>21</v>
+      </c>
       <c r="H32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>21</v>
+      </c>
       <c r="H34" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>21</v>
+      </c>
       <c r="H36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>21</v>
+      </c>
       <c r="H38" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
       <c r="H40" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>21</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G43" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>21</v>
+      </c>
       <c r="H44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>21</v>
+      </c>
       <c r="H46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G47" t="s">
+        <v>13</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>13</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
+        <v>52</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>21</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
       <c r="H56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>52</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>21</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
       <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>13</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>52</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>52</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
       <c r="H62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
       <c r="H64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>13</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>52</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>52</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>13</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>52</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G70" t="s">
+        <v>30</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>30</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>30</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>52</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G76" t="s">
+        <v>30</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G78" t="s">
+        <v>30</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>19</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G80" t="s">
+        <v>26</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G81" t="s">
+        <v>52</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>19</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G82" t="s">
+        <v>26</v>
+      </c>
       <c r="H82" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>52</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>19</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G84" t="s">
+        <v>26</v>
+      </c>
       <c r="H84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>19</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
       <c r="H86" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>13</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>52</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>19</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G88" t="s">
+        <v>26</v>
+      </c>
       <c r="H88" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>13</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>19</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>25</v>
+      </c>
+      <c r="G90" t="s">
+        <v>26</v>
+      </c>
       <c r="H90" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
       <c r="H91" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>52</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G93" t="s">
+        <v>43</v>
+      </c>
       <c r="H93" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I93" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>52</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G95" t="s">
+        <v>43</v>
+      </c>
       <c r="H95" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I95" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>128</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G99" t="s">
+        <v>131</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>13</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G101" t="s">
+        <v>134</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>13</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G103" t="s">
+        <v>134</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>13</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>13</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G105" t="s">
+        <v>131</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G106" t="s">
+        <v>13</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>13</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G107" t="s">
+        <v>131</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>13</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G109" t="s">
+        <v>128</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>16</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>21</v>
+      </c>
       <c r="H111" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>16</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>21</v>
+      </c>
       <c r="H113" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I113" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G114" t="s">
+        <v>134</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>16</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>21</v>
+      </c>
       <c r="H115" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>13</v>
-      </c>
-      <c r="G116" t="s"/>
-      <c r="H116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G116" t="s">
+        <v>134</v>
+      </c>
+      <c r="H116" t="s"/>
+      <c r="I116" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
       <c r="H117" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I117" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
-      </c>
-      <c r="G118" t="s"/>
-      <c r="H118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="H118" t="s"/>
+      <c r="I118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>21</v>
+      </c>
       <c r="H119" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I119" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
-      </c>
-      <c r="G120" t="s"/>
-      <c r="H120" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G120" t="s">
+        <v>134</v>
+      </c>
+      <c r="H120" t="s"/>
+      <c r="I120" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>16</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
       <c r="H121" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I121" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
-      </c>
-      <c r="G122" t="s"/>
-      <c r="H122" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>134</v>
+      </c>
+      <c r="H122" t="s"/>
+      <c r="I122" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>16</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>21</v>
+      </c>
       <c r="H123" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I123" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>13</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>134</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>16</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
       <c r="H125" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I125" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>13</v>
-      </c>
-      <c r="G126" t="s"/>
-      <c r="H126" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>134</v>
+      </c>
+      <c r="H126" t="s"/>
+      <c r="I126" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>16</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>21</v>
+      </c>
       <c r="H127" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I127" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>13</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>134</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>16</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>21</v>
+      </c>
       <c r="H129" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I129" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>13</v>
-      </c>
-      <c r="G130" t="s"/>
-      <c r="H130" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G130" t="s">
+        <v>134</v>
+      </c>
+      <c r="H130" t="s"/>
+      <c r="I130" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>16</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>21</v>
+      </c>
       <c r="H131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I131" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>134</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>16</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>21</v>
+      </c>
       <c r="H133" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I133" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>13</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G134" t="s">
+        <v>131</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>13</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>128</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>16</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
       <c r="H136" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I136" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
-      </c>
-      <c r="G137" t="s"/>
-      <c r="H137" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>128</v>
+      </c>
+      <c r="H137" t="s"/>
+      <c r="I137" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>16</v>
-      </c>
-      <c r="G138" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
       <c r="H138" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I138" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>134</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>16</v>
-      </c>
-      <c r="G142" t="s"/>
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>21</v>
+      </c>
       <c r="H142" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="I142" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>159</v>
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg98605.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg98605.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400606</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Salmon</t>
   </si>
   <si>
@@ -79,6 +85,9 @@
     <t>400371</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Sherman</t>
   </si>
   <si>
@@ -92,6 +101,9 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Chabot</t>
@@ -896,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:J143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,7 +916,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,4007 +941,4320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
-        <v>30</v>
-      </c>
       <c r="H8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="I12" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="J12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I13" t="s">
         <v>31</v>
       </c>
-      <c r="I12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
-        <v>30</v>
-      </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G18" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22" t="s">
-        <v>52</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H26" t="s"/>
-      <c r="I26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s"/>
+      <c r="J26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I32" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" t="s">
-        <v>52</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H38" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I38" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>56</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>56</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I42" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>16</v>
-      </c>
-      <c r="G43" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I44" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>56</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>56</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>52</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>56</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>17</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
+        <v>33</v>
+      </c>
+      <c r="G54" t="s">
         <v>29</v>
       </c>
-      <c r="G54" t="s">
-        <v>30</v>
-      </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I54" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
-      </c>
-      <c r="G55" t="s">
-        <v>52</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>56</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
+        <v>33</v>
+      </c>
+      <c r="G56" t="s">
         <v>29</v>
       </c>
-      <c r="G56" t="s">
-        <v>30</v>
-      </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
-      </c>
-      <c r="G57" t="s">
-        <v>52</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
+        <v>33</v>
+      </c>
+      <c r="G58" t="s">
         <v>29</v>
       </c>
-      <c r="G58" t="s">
-        <v>30</v>
-      </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I58" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" t="s">
-        <v>52</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>56</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
+        <v>33</v>
+      </c>
+      <c r="G60" t="s">
         <v>29</v>
       </c>
-      <c r="G60" t="s">
-        <v>30</v>
-      </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>16</v>
-      </c>
-      <c r="G61" t="s">
-        <v>52</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
+        <v>33</v>
+      </c>
+      <c r="G62" t="s">
         <v>29</v>
       </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G63" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
+        <v>33</v>
+      </c>
+      <c r="G64" t="s">
         <v>29</v>
       </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>16</v>
-      </c>
-      <c r="G65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>56</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
         <v>29</v>
       </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>16</v>
-      </c>
-      <c r="G67" t="s">
-        <v>52</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>56</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
+        <v>33</v>
+      </c>
+      <c r="G68" t="s">
         <v>29</v>
       </c>
-      <c r="G68" t="s">
-        <v>30</v>
-      </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J68" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
-      </c>
-      <c r="G69" t="s">
-        <v>52</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>56</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
+        <v>33</v>
+      </c>
+      <c r="G70" t="s">
         <v>29</v>
       </c>
-      <c r="G70" t="s">
-        <v>30</v>
-      </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" t="s">
-        <v>52</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>56</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
+        <v>33</v>
+      </c>
+      <c r="G72" t="s">
         <v>29</v>
       </c>
-      <c r="G72" t="s">
-        <v>30</v>
-      </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I72" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" t="s">
-        <v>52</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>56</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
+        <v>33</v>
+      </c>
+      <c r="G74" t="s">
         <v>29</v>
       </c>
-      <c r="G74" t="s">
-        <v>30</v>
-      </c>
       <c r="H74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>16</v>
-      </c>
-      <c r="G75" t="s">
-        <v>52</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
+        <v>33</v>
+      </c>
+      <c r="G76" t="s">
         <v>29</v>
       </c>
-      <c r="G76" t="s">
-        <v>30</v>
-      </c>
       <c r="H76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J76" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>16</v>
-      </c>
-      <c r="G77" t="s">
-        <v>52</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
+        <v>33</v>
+      </c>
+      <c r="G78" t="s">
         <v>29</v>
       </c>
-      <c r="G78" t="s">
-        <v>30</v>
-      </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G80" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H80" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>16</v>
-      </c>
-      <c r="G81" t="s">
-        <v>52</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>56</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H82" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I82" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
-      </c>
-      <c r="G83" t="s">
-        <v>52</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>56</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G84" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H84" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J84" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G85" t="s">
-        <v>52</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>56</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G86" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H86" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J86" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
-      </c>
-      <c r="G87" t="s">
-        <v>52</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>56</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G88" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J88" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>16</v>
-      </c>
-      <c r="G89" t="s">
-        <v>52</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>56</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G90" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H90" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>31</v>
+      </c>
+      <c r="J90" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G91" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H91" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J91" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
-      </c>
-      <c r="G92" t="s">
-        <v>52</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>56</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H93" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I93" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J93" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" t="s">
-        <v>52</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>56</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H95" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I95" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J95" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" t="s">
-        <v>128</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>132</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" t="s">
-        <v>131</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>135</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s">
-        <v>134</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>138</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" t="s">
-        <v>134</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>138</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I104" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>16</v>
-      </c>
-      <c r="G105" t="s">
-        <v>131</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>135</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I106" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s">
-        <v>131</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>135</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I108" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>16</v>
-      </c>
-      <c r="G109" t="s">
-        <v>128</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>132</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I111" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I113" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J113" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>16</v>
-      </c>
-      <c r="G114" t="s">
-        <v>134</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>138</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J115" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>16</v>
-      </c>
-      <c r="G116" t="s">
-        <v>134</v>
-      </c>
-      <c r="H116" t="s"/>
-      <c r="I116" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>138</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I117" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J117" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
-      </c>
-      <c r="G118" t="s">
-        <v>134</v>
-      </c>
-      <c r="H118" t="s"/>
-      <c r="I118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>138</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G119" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H119" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I119" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J119" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>16</v>
-      </c>
-      <c r="G120" t="s">
-        <v>134</v>
-      </c>
-      <c r="H120" t="s"/>
-      <c r="I120" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>138</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H121" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I121" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J121" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" t="s">
-        <v>134</v>
-      </c>
-      <c r="H122" t="s"/>
-      <c r="I122" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G122" t="s"/>
+      <c r="H122" t="s">
+        <v>138</v>
+      </c>
+      <c r="I122" t="s"/>
+      <c r="J122" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G123" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H123" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I123" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J123" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>16</v>
-      </c>
-      <c r="G124" t="s">
-        <v>134</v>
-      </c>
-      <c r="H124" t="s"/>
-      <c r="I124" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
+      <c r="H124" t="s">
+        <v>138</v>
+      </c>
+      <c r="I124" t="s"/>
+      <c r="J124" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G125" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H125" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I125" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J125" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>16</v>
-      </c>
-      <c r="G126" t="s">
-        <v>134</v>
-      </c>
-      <c r="H126" t="s"/>
-      <c r="I126" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G126" t="s"/>
+      <c r="H126" t="s">
+        <v>138</v>
+      </c>
+      <c r="I126" t="s"/>
+      <c r="J126" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G127" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I127" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J127" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>16</v>
-      </c>
-      <c r="G128" t="s">
-        <v>134</v>
-      </c>
-      <c r="H128" t="s"/>
-      <c r="I128" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
+      <c r="H128" t="s">
+        <v>138</v>
+      </c>
+      <c r="I128" t="s"/>
+      <c r="J128" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H129" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I129" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J129" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>16</v>
-      </c>
-      <c r="G130" t="s">
-        <v>134</v>
-      </c>
-      <c r="H130" t="s"/>
-      <c r="I130" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G130" t="s"/>
+      <c r="H130" t="s">
+        <v>138</v>
+      </c>
+      <c r="I130" t="s"/>
+      <c r="J130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H131" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I131" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>16</v>
-      </c>
-      <c r="G132" t="s">
-        <v>134</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>138</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G133" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H133" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I133" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G134" t="s">
-        <v>131</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>135</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>16</v>
-      </c>
-      <c r="G135" t="s">
-        <v>128</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>132</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G136" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H136" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I136" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>16</v>
-      </c>
-      <c r="G137" t="s">
-        <v>128</v>
-      </c>
-      <c r="H137" t="s"/>
-      <c r="I137" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G137" t="s"/>
+      <c r="H137" t="s">
+        <v>132</v>
+      </c>
+      <c r="I137" t="s"/>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G138" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H138" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I138" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>16</v>
-      </c>
-      <c r="G140" t="s">
-        <v>134</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>138</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G142" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I142" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>177</v>
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
